--- a/PPDS_AIMM 92 - Squad 4.xlsx
+++ b/PPDS_AIMM 92 - Squad 4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F921125\Desktop\AIMM\Sprint 92\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03903DDF-1D0B-4882-BB18-2918F628CFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7331E634-70C8-4FA4-B050-1506F20AF3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="607" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,9 +445,6 @@
     <t>Open Finance - Movimentações Automáticas</t>
   </si>
   <si>
-    <t>Autorização de Pix Automático</t>
-  </si>
-  <si>
     <t>Incluir funcionalidade para:
 Desenvolvimento da funcionalidade de impressão do comprovante de  inclusão da Pendência para o Cancelamento do Pagamento Agendado do Pix Automático.</t>
   </si>
@@ -966,6 +963,9 @@
   <si>
     <t>HU 23374482
 SIGCX_23374482_Autorização de Pix Automático</t>
+  </si>
+  <si>
+    <t>Autorizar Pix Automático</t>
   </si>
 </sst>
 </file>
@@ -1158,7 +1158,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1291,6 +1291,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1683,7 +1689,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1819,6 +1825,12 @@
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1921,13 +1933,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1983,98 +1998,6 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -2682,6 +2605,29 @@
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -2709,6 +2655,29 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top/>
         <bottom/>
       </border>
@@ -2728,8 +2697,54 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3177,24 +3192,24 @@
     <filterColumn colId="17" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Funcionalidade" dataDxfId="3" totalsRowDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tipo de_x000a_Mudança na_x000a_Funcionalidade" dataDxfId="2" totalsRowDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Itens Afetados " dataDxfId="1" totalsRowDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Descrição da Mudança" dataDxfId="0" totalsRowDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Artefato" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Localização dos Artefatos" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Versão do Artefato" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tipo de Mudança no Artefato" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Tabela Impactada" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Tipo de Impacto" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Descrição da Mudança na Tabela" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Coluna1" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name=" " dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="  " dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="   " dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="    " dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="     " dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="      " dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Funcionalidade" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Tipo de_x000a_Mudança na_x000a_Funcionalidade" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Itens Afetados " dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Descrição da Mudança" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Artefato" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Localização dos Artefatos" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Versão do Artefato" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Tipo de Mudança no Artefato" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Tabela Impactada" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Tipo de Impacto" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Descrição da Mudança na Tabela" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Coluna1" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name=" " dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="  " dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="   " dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="    " dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="     " dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="      " dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Estilo de Tabela 1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -3537,34 +3552,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="61" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="62"/>
+      <c r="E2" s="64"/>
       <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="5">
         <f ca="1">NOW()</f>
-        <v>45940.010538888891</v>
+        <v>45943.655443055555</v>
       </c>
     </row>
     <row r="6" spans="2:9" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="57"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="11" t="s">
         <v>4</v>
       </c>
@@ -3574,10 +3589,10 @@
       <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="57"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="11" t="s">
         <v>6</v>
       </c>
@@ -3596,10 +3611,10 @@
       <c r="C10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="65"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="13" t="s">
         <v>11</v>
       </c>
@@ -3611,10 +3626,10 @@
       <c r="C11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="48"/>
+      <c r="E11" s="50"/>
       <c r="F11" s="13" t="s">
         <v>61</v>
       </c>
@@ -3623,15 +3638,15 @@
     <row r="12" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="48"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="50"/>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="48"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="50"/>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -3647,13 +3662,13 @@
       </c>
     </row>
     <row r="16" spans="2:9" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
@@ -3675,11 +3690,11 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="62"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F21" s="8" t="s">
@@ -3723,8 +3738,8 @@
   </sheetPr>
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3745,38 +3760,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="71" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="67" t="s">
+      <c r="J2" s="73"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
     </row>
     <row r="3" spans="1:18" ht="43.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3835,8 +3850,8 @@
       </c>
     </row>
     <row r="4" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
-        <v>114</v>
+      <c r="A4" s="47" t="s">
+        <v>113</v>
       </c>
       <c r="B4" s="40" t="s">
         <v>62</v>
@@ -3845,10 +3860,10 @@
         <v>69</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>67</v>
@@ -3877,8 +3892,8 @@
       <c r="R4" s="40"/>
     </row>
     <row r="5" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
-        <v>116</v>
+      <c r="A5" s="47" t="s">
+        <v>115</v>
       </c>
       <c r="B5" s="40" t="s">
         <v>62</v>
@@ -3887,10 +3902,10 @@
         <v>69</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F5" s="43" t="s">
         <v>67</v>
@@ -3919,8 +3934,8 @@
       <c r="R5" s="40"/>
     </row>
     <row r="6" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45" t="s">
-        <v>118</v>
+      <c r="A6" s="48" t="s">
+        <v>117</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>62</v>
@@ -3929,10 +3944,10 @@
         <v>69</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>67</v>
@@ -3961,8 +3976,8 @@
       <c r="R6" s="40"/>
     </row>
     <row r="7" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
-        <v>120</v>
+      <c r="A7" s="48" t="s">
+        <v>119</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>62</v>
@@ -3971,10 +3986,10 @@
         <v>69</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>67</v>
@@ -4003,8 +4018,8 @@
       <c r="R7" s="40"/>
     </row>
     <row r="8" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
-        <v>126</v>
+      <c r="A8" s="48" t="s">
+        <v>125</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>62</v>
@@ -4013,10 +4028,10 @@
         <v>64</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F8" s="43" t="s">
         <v>67</v>
@@ -4045,8 +4060,8 @@
       <c r="R8" s="40"/>
     </row>
     <row r="9" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45" t="s">
-        <v>124</v>
+      <c r="A9" s="48" t="s">
+        <v>123</v>
       </c>
       <c r="B9" s="40" t="s">
         <v>62</v>
@@ -4055,10 +4070,10 @@
         <v>69</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F9" s="43" t="s">
         <v>67</v>
@@ -4087,8 +4102,8 @@
       <c r="R9" s="40"/>
     </row>
     <row r="10" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
-        <v>123</v>
+      <c r="A10" s="48" t="s">
+        <v>122</v>
       </c>
       <c r="B10" s="40" t="s">
         <v>62</v>
@@ -4100,7 +4115,7 @@
         <v>70</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F10" s="43" t="s">
         <v>67</v>
@@ -4129,8 +4144,8 @@
       <c r="R10" s="40"/>
     </row>
     <row r="11" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
-        <v>129</v>
+      <c r="A11" s="47" t="s">
+        <v>128</v>
       </c>
       <c r="B11" s="40" t="s">
         <v>62</v>
@@ -4139,10 +4154,10 @@
         <v>69</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F11" s="43" t="s">
         <v>67</v>
@@ -4171,8 +4186,8 @@
       <c r="R11" s="40"/>
     </row>
     <row r="12" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
-        <v>131</v>
+      <c r="A12" s="47" t="s">
+        <v>130</v>
       </c>
       <c r="B12" s="40" t="s">
         <v>62</v>
@@ -4181,10 +4196,10 @@
         <v>69</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F12" s="43" t="s">
         <v>67</v>
@@ -4213,8 +4228,8 @@
       <c r="R12" s="40"/>
     </row>
     <row r="13" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
-        <v>133</v>
+      <c r="A13" s="48" t="s">
+        <v>132</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>62</v>
@@ -4223,10 +4238,10 @@
         <v>69</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>67</v>
@@ -4255,8 +4270,8 @@
       <c r="R13" s="40"/>
     </row>
     <row r="14" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
-        <v>135</v>
+      <c r="A14" s="48" t="s">
+        <v>134</v>
       </c>
       <c r="B14" s="40" t="s">
         <v>62</v>
@@ -4268,7 +4283,7 @@
         <v>71</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F14" s="43" t="s">
         <v>67</v>
@@ -4297,8 +4312,8 @@
       <c r="R14" s="40"/>
     </row>
     <row r="15" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
-        <v>137</v>
+      <c r="A15" s="48" t="s">
+        <v>136</v>
       </c>
       <c r="B15" s="40" t="s">
         <v>62</v>
@@ -4307,10 +4322,10 @@
         <v>64</v>
       </c>
       <c r="D15" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F15" s="43" t="s">
         <v>67</v>
@@ -4339,8 +4354,8 @@
       <c r="R15" s="40"/>
     </row>
     <row r="16" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
-        <v>139</v>
+      <c r="A16" s="48" t="s">
+        <v>138</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>62</v>
@@ -4348,11 +4363,11 @@
       <c r="C16" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="45" t="s">
-        <v>84</v>
+      <c r="D16" s="48" t="s">
+        <v>83</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F16" s="43" t="s">
         <v>67</v>
@@ -4381,8 +4396,8 @@
       <c r="R16" s="40"/>
     </row>
     <row r="17" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
-        <v>141</v>
+      <c r="A17" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="B17" s="40" t="s">
         <v>62</v>
@@ -4394,7 +4409,7 @@
         <v>72</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" s="43" t="s">
         <v>67</v>
@@ -4423,8 +4438,8 @@
       <c r="R17" s="40"/>
     </row>
     <row r="18" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
-        <v>143</v>
+      <c r="A18" s="47" t="s">
+        <v>142</v>
       </c>
       <c r="B18" s="40" t="s">
         <v>62</v>
@@ -4433,10 +4448,10 @@
         <v>69</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F18" s="43" t="s">
         <v>67</v>
@@ -4465,8 +4480,8 @@
       <c r="R18" s="40"/>
     </row>
     <row r="19" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44" t="s">
-        <v>145</v>
+      <c r="A19" s="47" t="s">
+        <v>144</v>
       </c>
       <c r="B19" s="40" t="s">
         <v>62</v>
@@ -4475,10 +4490,10 @@
         <v>69</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F19" s="43" t="s">
         <v>67</v>
@@ -4507,8 +4522,8 @@
       <c r="R19" s="40"/>
     </row>
     <row r="20" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
-        <v>147</v>
+      <c r="A20" s="48" t="s">
+        <v>146</v>
       </c>
       <c r="B20" s="40" t="s">
         <v>62</v>
@@ -4517,10 +4532,10 @@
         <v>69</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F20" s="43" t="s">
         <v>67</v>
@@ -4549,8 +4564,8 @@
       <c r="R20" s="40"/>
     </row>
     <row r="21" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45" t="s">
-        <v>149</v>
+      <c r="A21" s="48" t="s">
+        <v>148</v>
       </c>
       <c r="B21" s="40" t="s">
         <v>62</v>
@@ -4562,7 +4577,7 @@
         <v>73</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F21" s="43" t="s">
         <v>67</v>
@@ -4591,8 +4606,8 @@
       <c r="R21" s="40"/>
     </row>
     <row r="22" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="45" t="s">
-        <v>151</v>
+      <c r="A22" s="48" t="s">
+        <v>150</v>
       </c>
       <c r="B22" s="40" t="s">
         <v>62</v>
@@ -4601,10 +4616,10 @@
         <v>64</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F22" s="43" t="s">
         <v>67</v>
@@ -4633,8 +4648,8 @@
       <c r="R22" s="40"/>
     </row>
     <row r="23" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
-        <v>153</v>
+      <c r="A23" s="48" t="s">
+        <v>152</v>
       </c>
       <c r="B23" s="40" t="s">
         <v>62</v>
@@ -4643,10 +4658,10 @@
         <v>69</v>
       </c>
       <c r="D23" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F23" s="43" t="s">
         <v>67</v>
@@ -4675,8 +4690,8 @@
       <c r="R23" s="40"/>
     </row>
     <row r="24" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="s">
-        <v>155</v>
+      <c r="A24" s="48" t="s">
+        <v>154</v>
       </c>
       <c r="B24" s="40" t="s">
         <v>62</v>
@@ -4688,7 +4703,7 @@
         <v>74</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F24" s="43" t="s">
         <v>67</v>
@@ -4717,8 +4732,8 @@
       <c r="R24" s="40"/>
     </row>
     <row r="25" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46" t="s">
-        <v>157</v>
+      <c r="A25" s="83" t="s">
+        <v>156</v>
       </c>
       <c r="B25" s="40" t="s">
         <v>62</v>
@@ -4727,10 +4742,10 @@
         <v>69</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F25" s="43" t="s">
         <v>67</v>
@@ -4759,8 +4774,8 @@
       <c r="R25" s="40"/>
     </row>
     <row r="26" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="46" t="s">
-        <v>159</v>
+      <c r="A26" s="83" t="s">
+        <v>158</v>
       </c>
       <c r="B26" s="40" t="s">
         <v>62</v>
@@ -4769,10 +4784,10 @@
         <v>69</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F26" s="43" t="s">
         <v>67</v>
@@ -4801,8 +4816,8 @@
       <c r="R26" s="40"/>
     </row>
     <row r="27" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="45" t="s">
-        <v>161</v>
+      <c r="A27" s="48" t="s">
+        <v>160</v>
       </c>
       <c r="B27" s="40" t="s">
         <v>62</v>
@@ -4811,10 +4826,10 @@
         <v>69</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F27" s="43" t="s">
         <v>67</v>
@@ -4843,8 +4858,8 @@
       <c r="R27" s="40"/>
     </row>
     <row r="28" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="45" t="s">
-        <v>163</v>
+      <c r="A28" s="48" t="s">
+        <v>162</v>
       </c>
       <c r="B28" s="40" t="s">
         <v>62</v>
@@ -4853,10 +4868,10 @@
         <v>69</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F28" s="43" t="s">
         <v>67</v>
@@ -4885,8 +4900,8 @@
       <c r="R28" s="40"/>
     </row>
     <row r="29" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="45" t="s">
-        <v>165</v>
+      <c r="A29" s="48" t="s">
+        <v>164</v>
       </c>
       <c r="B29" s="40" t="s">
         <v>62</v>
@@ -4895,10 +4910,10 @@
         <v>64</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F29" s="43" t="s">
         <v>67</v>
@@ -4927,8 +4942,8 @@
       <c r="R29" s="40"/>
     </row>
     <row r="30" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="45" t="s">
-        <v>167</v>
+      <c r="A30" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="B30" s="40" t="s">
         <v>62</v>
@@ -4937,10 +4952,10 @@
         <v>69</v>
       </c>
       <c r="D30" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F30" s="43" t="s">
         <v>67</v>
@@ -4969,8 +4984,8 @@
       <c r="R30" s="40"/>
     </row>
     <row r="31" spans="1:18" s="41" customFormat="1" ht="312.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="45" t="s">
-        <v>169</v>
+      <c r="A31" s="48" t="s">
+        <v>168</v>
       </c>
       <c r="B31" s="40" t="s">
         <v>62</v>
@@ -4979,10 +4994,10 @@
         <v>69</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F31" s="43" t="s">
         <v>67</v>
@@ -5011,8 +5026,8 @@
       <c r="R31" s="40"/>
     </row>
     <row r="32" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="46" t="s">
-        <v>171</v>
+      <c r="A32" s="83" t="s">
+        <v>170</v>
       </c>
       <c r="B32" s="40" t="s">
         <v>62</v>
@@ -5021,10 +5036,10 @@
         <v>69</v>
       </c>
       <c r="D32" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F32" s="43" t="s">
         <v>67</v>
@@ -5053,8 +5068,8 @@
       <c r="R32" s="40"/>
     </row>
     <row r="33" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="46" t="s">
-        <v>173</v>
+      <c r="A33" s="83" t="s">
+        <v>172</v>
       </c>
       <c r="B33" s="40" t="s">
         <v>62</v>
@@ -5063,10 +5078,10 @@
         <v>69</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F33" s="43" t="s">
         <v>67</v>
@@ -5095,8 +5110,8 @@
       <c r="R33" s="40"/>
     </row>
     <row r="34" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
-        <v>175</v>
+      <c r="A34" s="83" t="s">
+        <v>174</v>
       </c>
       <c r="B34" s="40" t="s">
         <v>62</v>
@@ -5105,10 +5120,10 @@
         <v>69</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F34" s="43" t="s">
         <v>67</v>
@@ -5137,8 +5152,8 @@
       <c r="R34" s="40"/>
     </row>
     <row r="35" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="46" t="s">
-        <v>177</v>
+      <c r="A35" s="83" t="s">
+        <v>176</v>
       </c>
       <c r="B35" s="40" t="s">
         <v>62</v>
@@ -5147,10 +5162,10 @@
         <v>69</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F35" s="43" t="s">
         <v>67</v>
@@ -5179,8 +5194,8 @@
       <c r="R35" s="40"/>
     </row>
     <row r="36" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="46" t="s">
-        <v>179</v>
+      <c r="A36" s="83" t="s">
+        <v>178</v>
       </c>
       <c r="B36" s="40" t="s">
         <v>62</v>
@@ -5189,10 +5204,10 @@
         <v>64</v>
       </c>
       <c r="D36" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F36" s="43" t="s">
         <v>67</v>
@@ -5221,8 +5236,8 @@
       <c r="R36" s="40"/>
     </row>
     <row r="37" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="46" t="s">
-        <v>181</v>
+      <c r="A37" s="83" t="s">
+        <v>180</v>
       </c>
       <c r="B37" s="40" t="s">
         <v>62</v>
@@ -5231,10 +5246,10 @@
         <v>69</v>
       </c>
       <c r="D37" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F37" s="43" t="s">
         <v>67</v>
@@ -5263,8 +5278,8 @@
       <c r="R37" s="40"/>
     </row>
     <row r="38" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="46" t="s">
-        <v>183</v>
+      <c r="A38" s="83" t="s">
+        <v>182</v>
       </c>
       <c r="B38" s="40" t="s">
         <v>62</v>
@@ -5273,10 +5288,10 @@
         <v>69</v>
       </c>
       <c r="D38" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F38" s="43" t="s">
         <v>67</v>
@@ -5305,20 +5320,20 @@
       <c r="R38" s="40"/>
     </row>
     <row r="39" spans="1:18" s="41" customFormat="1" ht="355.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="84" t="s">
         <v>75</v>
       </c>
       <c r="B39" s="40" t="s">
         <v>63</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F39" s="43" t="s">
         <v>67</v>
@@ -5347,20 +5362,20 @@
       <c r="R39" s="40"/>
     </row>
     <row r="40" spans="1:18" s="41" customFormat="1" ht="363.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="84" t="s">
         <v>76</v>
       </c>
       <c r="B40" s="40" t="s">
         <v>63</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F40" s="43" t="s">
         <v>67</v>
@@ -5389,20 +5404,20 @@
       <c r="R40" s="40"/>
     </row>
     <row r="41" spans="1:18" s="41" customFormat="1" ht="313.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="82" t="s">
+      <c r="A41" s="85" t="s">
         <v>77</v>
       </c>
       <c r="B41" s="40" t="s">
         <v>63</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F41" s="43" t="s">
         <v>67</v>
@@ -5431,20 +5446,20 @@
       <c r="R41" s="40"/>
     </row>
     <row r="42" spans="1:18" s="41" customFormat="1" ht="352.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="83" t="s">
-        <v>78</v>
+      <c r="A42" s="86" t="s">
+        <v>187</v>
       </c>
       <c r="B42" s="40" t="s">
         <v>63</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="D42" s="46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F42" s="43" t="s">
         <v>67</v>
@@ -5519,26 +5534,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="3" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="74" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
     </row>
     <row r="3" spans="1:10" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
@@ -5565,7 +5580,7 @@
       <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="77" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="33"/>
@@ -5579,7 +5594,7 @@
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="26"/>
@@ -5591,7 +5606,7 @@
       <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
       <c r="D6" s="26"/>
@@ -5603,7 +5618,7 @@
       <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="75" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="27"/>
@@ -5617,7 +5632,7 @@
       <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="73"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="26"/>
@@ -5629,7 +5644,7 @@
       <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="26"/>
@@ -5641,7 +5656,7 @@
       <c r="J9" s="26"/>
     </row>
     <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="75" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="27"/>
@@ -5655,7 +5670,7 @@
       <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="26"/>
@@ -5667,7 +5682,7 @@
       <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="26"/>
@@ -5679,7 +5694,7 @@
       <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="75" t="s">
         <v>47</v>
       </c>
       <c r="B13" s="27"/>
@@ -5693,7 +5708,7 @@
       <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="26"/>
@@ -5705,7 +5720,7 @@
       <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="26"/>
@@ -5717,7 +5732,7 @@
       <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="75" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="27"/>
@@ -5731,7 +5746,7 @@
       <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="26"/>
@@ -5743,7 +5758,7 @@
       <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
+      <c r="A18" s="75"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="26"/>
@@ -5755,7 +5770,7 @@
       <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="75" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="27"/>
@@ -5769,7 +5784,7 @@
       <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
+      <c r="A20" s="75"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="26"/>
@@ -5781,7 +5796,7 @@
       <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
+      <c r="A21" s="75"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
       <c r="D21" s="26"/>
@@ -5793,7 +5808,7 @@
       <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="75" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="27"/>
@@ -5807,7 +5822,7 @@
       <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="26"/>
@@ -5819,7 +5834,7 @@
       <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
+      <c r="A24" s="75"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="26"/>
@@ -5831,7 +5846,7 @@
       <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="26"/>
@@ -5843,7 +5858,7 @@
       <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="75" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="27"/>
@@ -5857,7 +5872,7 @@
       <c r="J26" s="26"/>
     </row>
     <row r="27" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
+      <c r="A27" s="75"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="26"/>
@@ -5869,7 +5884,7 @@
       <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
+      <c r="A28" s="75"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" s="26"/>
@@ -5929,24 +5944,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="61" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="62"/>
+      <c r="E2" s="64"/>
       <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="5">
         <f ca="1">NOW()</f>
-        <v>45940.010538888891</v>
+        <v>45943.655443055555</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -5957,13 +5972,13 @@
       <c r="F4" s="18"/>
     </row>
     <row r="6" spans="2:6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
     </row>
     <row r="7" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="16"/>
@@ -5979,10 +5994,10 @@
       <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="65"/>
+      <c r="E8" s="67"/>
       <c r="F8" s="13" t="s">
         <v>11</v>
       </c>
@@ -5994,10 +6009,10 @@
       <c r="C9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="80"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="14" t="s">
         <v>55</v>
       </c>
@@ -6009,10 +6024,10 @@
       <c r="C10" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="77"/>
+      <c r="E10" s="79"/>
       <c r="F10" s="36" t="s">
         <v>55</v>
       </c>
@@ -6024,10 +6039,10 @@
       <c r="C11" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="76" t="s">
+      <c r="D11" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="77"/>
+      <c r="E11" s="79"/>
       <c r="F11" s="36" t="s">
         <v>55</v>
       </c>
